--- a/clase4/conductores.xlsx
+++ b/clase4/conductores.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="127">
   <si>
     <t>Conductor</t>
   </si>
@@ -219,24 +219,36 @@
     <t>Jorge</t>
   </si>
   <si>
+    <t>Av.Sullana</t>
+  </si>
+  <si>
     <t>Camisas</t>
   </si>
   <si>
     <t>Juan</t>
   </si>
   <si>
+    <t>Av.larco</t>
+  </si>
+  <si>
     <t>Dinero</t>
   </si>
   <si>
     <t>Ernesto</t>
   </si>
   <si>
+    <t>Av.Sanchezcerro</t>
+  </si>
+  <si>
     <t>Ropa</t>
   </si>
   <si>
     <t>Martin</t>
   </si>
   <si>
+    <t>Urb.Santa Pinar</t>
+  </si>
+  <si>
     <t>Comida</t>
   </si>
   <si>
@@ -252,9 +264,6 @@
     <t>Kendra</t>
   </si>
   <si>
-    <t>Los órganos</t>
-  </si>
-  <si>
     <t>Comercio</t>
   </si>
   <si>
@@ -267,9 +276,15 @@
     <t>Marcos</t>
   </si>
   <si>
+    <t>Av. Martin Ignacio Pardo</t>
+  </si>
+  <si>
     <t>Ricardo</t>
   </si>
   <si>
+    <t>Plazuela Lopez</t>
+  </si>
+  <si>
     <t>Martina</t>
   </si>
   <si>
@@ -334,6 +349,27 @@
   </si>
   <si>
     <t>Combi</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Subaru</t>
+  </si>
+  <si>
+    <t>Kía</t>
+  </si>
+  <si>
+    <t>Chevrolet</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Mercedes</t>
   </si>
   <si>
     <t>Barrios Altos</t>
@@ -498,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -563,6 +599,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1349,8 +1388,8 @@
       <c r="E37" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>11</v>
+      <c r="F37" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="G37" s="20">
         <v>7.5216454E7</v>
@@ -1364,7 +1403,7 @@
         <v>2.0</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C38" s="6">
         <v>3.0</v>
@@ -1373,10 +1412,10 @@
         <v>20.0</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>21</v>
+        <v>67</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="G38" s="20">
         <v>4.5158796E7</v>
@@ -1390,7 +1429,7 @@
         <v>3.0</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C39" s="6">
         <v>0.5</v>
@@ -1399,10 +1438,10 @@
         <v>45.0</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>40</v>
+        <v>70</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="G39" s="20">
         <v>4.2596851E7</v>
@@ -1416,7 +1455,7 @@
         <v>4.0</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C40" s="6">
         <v>2.0</v>
@@ -1425,10 +1464,10 @@
         <v>22.0</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>37</v>
+        <v>73</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="G40" s="6">
         <v>4.8398215E7</v>
@@ -1442,7 +1481,7 @@
         <v>5.0</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C41" s="6">
         <v>4.0</v>
@@ -1451,10 +1490,10 @@
         <v>15.5</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>43</v>
+        <v>76</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="G41" s="6">
         <v>7.5542698E7</v>
@@ -1468,7 +1507,7 @@
         <v>6.0</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C42" s="6">
         <v>3.0</v>
@@ -1477,10 +1516,10 @@
         <v>40.0</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>48</v>
+        <v>67</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="G42" s="6">
         <v>7.4587515E7</v>
@@ -1494,7 +1533,7 @@
         <v>7.0</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C43" s="6">
         <v>5.0</v>
@@ -1503,10 +1542,10 @@
         <v>12.0</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="G43" s="6">
         <v>7.2257845E7</v>
@@ -1520,7 +1559,7 @@
         <v>8.0</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C44" s="6">
         <v>10.0</v>
@@ -1529,10 +1568,10 @@
         <v>18.2</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>18</v>
+        <v>73</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="G44" s="6">
         <v>7.5216454E7</v>
@@ -1546,7 +1585,7 @@
         <v>9.0</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C45" s="6">
         <v>8.0</v>
@@ -1555,10 +1594,10 @@
         <v>32.0</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="G45" s="6">
         <v>7.5213695E7</v>
@@ -1572,7 +1611,7 @@
         <v>10.0</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C46" s="6">
         <v>6.0</v>
@@ -1581,10 +1620,10 @@
         <v>22.0</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>48</v>
+        <v>83</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="G46" s="6">
         <v>7.2563298E7</v>
@@ -1598,7 +1637,7 @@
         <v>11.0</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C47" s="6">
         <v>7.0</v>
@@ -1607,10 +1646,10 @@
         <v>24.0</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="G47" s="6">
         <v>7.5812465E7</v>
@@ -1624,7 +1663,7 @@
         <v>12.0</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C48" s="6">
         <v>10.0</v>
@@ -1633,10 +1672,10 @@
         <v>15.5</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>21</v>
+        <v>87</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="G48" s="6">
         <v>4.2596851E7</v>
@@ -1650,7 +1689,7 @@
         <v>13.0</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C49" s="6">
         <v>12.0</v>
@@ -1659,10 +1698,10 @@
         <v>18.0</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="G49" s="6">
         <v>4.8398215E7</v>
@@ -1676,7 +1715,7 @@
         <v>14.0</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C50" s="6">
         <v>14.0</v>
@@ -1685,10 +1724,10 @@
         <v>20.5</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>43</v>
+        <v>89</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="G50" s="6">
         <v>7.5542698E7</v>
@@ -1702,7 +1741,7 @@
         <v>15.0</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C51" s="6">
         <v>15.0</v>
@@ -1711,10 +1750,10 @@
         <v>17.5</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>48</v>
+        <v>90</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="G51" s="6">
         <v>7.2257845E7</v>
@@ -1728,7 +1767,7 @@
         <v>16.0</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C52" s="6">
         <v>19.0</v>
@@ -1737,10 +1776,10 @@
         <v>8.4</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>76</v>
+        <v>91</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="G52" s="6">
         <v>7.5216454E7</v>
@@ -1754,7 +1793,7 @@
         <v>17.0</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C53" s="6">
         <v>22.0</v>
@@ -1763,10 +1802,10 @@
         <v>11.9</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>11</v>
+        <v>92</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="G53" s="6">
         <v>4.5158796E7</v>
@@ -1789,10 +1828,10 @@
         <v>23.0</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>21</v>
+        <v>70</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="G54" s="6">
         <v>4.2596851E7</v>
@@ -1806,7 +1845,7 @@
         <v>19.0</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C55" s="6">
         <v>3.0</v>
@@ -1815,10 +1854,10 @@
         <v>27.0</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>40</v>
+        <v>93</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="G55" s="6">
         <v>4.8398215E7</v>
@@ -1832,7 +1871,7 @@
         <v>20.0</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C56" s="6">
         <v>1.0</v>
@@ -1841,10 +1880,10 @@
         <v>14.5</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>18</v>
+        <v>94</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="G56" s="6">
         <v>7.5542698E7</v>
@@ -1858,7 +1897,7 @@
         <v>21.0</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C57" s="6">
         <v>0.5</v>
@@ -1867,10 +1906,10 @@
         <v>28.0</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>43</v>
+        <v>96</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="G57" s="6">
         <v>7.4587515E7</v>
@@ -1884,7 +1923,7 @@
         <v>22.0</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C58" s="6">
         <v>20.0</v>
@@ -1893,10 +1932,10 @@
         <v>50.0</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>21</v>
+        <v>98</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="G58" s="6">
         <v>7.2257845E7</v>
@@ -1905,78 +1944,685 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I62" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="B63" s="6">
+        <v>9.8563221E8</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E63" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="H63" s="6">
+        <v>5825465.0</v>
+      </c>
+      <c r="I63" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J63" s="23">
+        <v>44615.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="B64" s="6">
+        <v>9.66832144E8</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E64" s="6">
+        <v>25.0</v>
+      </c>
+      <c r="H64" s="6">
+        <v>7.2257845E7</v>
+      </c>
+      <c r="I64" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="J64" s="23">
+        <v>44615.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="B65" s="20">
+        <v>9.66875321E8</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E65" s="20">
+        <v>14.0</v>
+      </c>
+      <c r="H65" s="6">
+        <v>7.5216454E7</v>
+      </c>
+      <c r="I65" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J65" s="23">
+        <v>44616.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="20">
+        <v>4.0</v>
+      </c>
+      <c r="B66" s="20">
+        <v>9.98523664E8</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" s="20">
+        <v>30.0</v>
+      </c>
+      <c r="H66" s="6">
+        <v>4.5158796E7</v>
+      </c>
+      <c r="I66" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="J66" s="23">
+        <v>44616.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="B67" s="20">
+        <v>2.15751269E8</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E67" s="20">
+        <v>32.0</v>
+      </c>
+      <c r="H67" s="6">
+        <v>4.5268795E7</v>
+      </c>
+      <c r="I67" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="J67" s="23">
+        <v>44617.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="20">
+        <v>6.0</v>
+      </c>
+      <c r="B68" s="20">
+        <v>2.23475256E8</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E68" s="20">
+        <v>27.0</v>
+      </c>
+      <c r="H68" s="6">
+        <v>7.4582369E7</v>
+      </c>
+      <c r="I68" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="J68" s="24">
+        <v>44617.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="20">
+        <v>7.0</v>
+      </c>
+      <c r="B69" s="20">
+        <v>2.24875963E8</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E69" s="20">
+        <v>38.0</v>
+      </c>
+      <c r="H69" s="6">
+        <v>7.5213695E7</v>
+      </c>
+      <c r="I69" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="J69" s="24">
+        <v>44618.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="20">
+        <v>8.0</v>
+      </c>
+      <c r="B70" s="20">
+        <v>9.87445612E8</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" s="20">
+        <v>40.0</v>
+      </c>
+      <c r="H70" s="6">
+        <v>7.5812465E7</v>
+      </c>
+      <c r="I70" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="J70" s="24">
+        <v>44618.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="20">
+        <v>9.0</v>
+      </c>
+      <c r="B71" s="20">
+        <v>9.55423658E8</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E71" s="20">
+        <v>45.0</v>
+      </c>
+      <c r="H71" s="6">
+        <v>4.2596851E7</v>
+      </c>
+      <c r="I71" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J71" s="24">
+        <v>44619.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="20">
+        <v>10.0</v>
+      </c>
+      <c r="B72" s="20">
+        <v>9.00045212E8</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" s="20">
+        <v>41.0</v>
+      </c>
+      <c r="H72" s="6">
+        <v>4.8398215E7</v>
+      </c>
+      <c r="I72" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="J72" s="24">
+        <v>44619.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="20">
+        <v>11.0</v>
+      </c>
+      <c r="B73" s="20">
+        <v>9.36602544E8</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E73" s="20">
+        <v>22.0</v>
+      </c>
+      <c r="H73" s="6">
+        <v>7.4582369E7</v>
+      </c>
+      <c r="I73" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="J73" s="24">
+        <v>44620.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="20">
+        <v>12.0</v>
+      </c>
+      <c r="B74" s="20">
+        <v>9.00044458E8</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E74" s="20">
+        <v>80.0</v>
+      </c>
+      <c r="H74" s="6">
+        <v>7.5213695E7</v>
+      </c>
+      <c r="I74" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="J74" s="24">
+        <v>44620.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="20">
+        <v>13.0</v>
+      </c>
+      <c r="B75" s="20">
+        <v>9.33201452E8</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" s="20">
+        <v>34.0</v>
+      </c>
+      <c r="H75" s="6">
+        <v>7.2563298E7</v>
+      </c>
+      <c r="I75" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="J75" s="23">
+        <v>44621.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="20">
+        <v>14.0</v>
+      </c>
+      <c r="B76" s="20">
+        <v>9.87522561E8</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E76" s="20">
+        <v>25.0</v>
+      </c>
+      <c r="H76" s="6">
+        <v>7.5812465E7</v>
+      </c>
+      <c r="I76" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="J76" s="23">
+        <v>44622.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="20">
+        <v>15.0</v>
+      </c>
+      <c r="B77" s="20">
+        <v>9.63362145E8</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77" s="20">
+        <v>22.0</v>
+      </c>
+      <c r="H77" s="6">
+        <v>7.5812465E7</v>
+      </c>
+      <c r="I77" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="J77" s="23">
+        <v>44623.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="20">
+        <v>16.0</v>
+      </c>
+      <c r="B78" s="20">
+        <v>9.87745612E8</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" s="20">
+        <v>22.0</v>
+      </c>
+      <c r="H78" s="6">
+        <v>4.2596851E7</v>
+      </c>
+      <c r="I78" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="J78" s="23">
+        <v>44624.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="20">
+        <v>17.0</v>
+      </c>
+      <c r="B79" s="20">
+        <v>8.55824212E8</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" s="20">
+        <v>30.0</v>
+      </c>
+      <c r="H79" s="6">
+        <v>4.8398215E7</v>
+      </c>
+      <c r="I79" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="J79" s="23">
+        <v>44625.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="20">
+        <v>18.0</v>
+      </c>
+      <c r="B80" s="20">
+        <v>9.93415254E8</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E80" s="20">
+        <v>55.0</v>
+      </c>
+      <c r="H80" s="6">
+        <v>7.5542698E7</v>
+      </c>
+      <c r="I80" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="J80" s="23">
+        <v>44626.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="H81" s="6">
+        <v>7.5213695E7</v>
+      </c>
+      <c r="I81" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="J81" s="23">
+        <v>44627.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="H82" s="6">
+        <v>7.5812465E7</v>
+      </c>
+      <c r="I82" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="J82" s="23">
+        <v>44628.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="H83" s="6">
+        <v>4.2596851E7</v>
+      </c>
+      <c r="I83" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="J83" s="23">
+        <v>44629.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="H84" s="6">
+        <v>7.2563298E7</v>
+      </c>
+      <c r="I84" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="J84" s="23">
+        <v>44630.0</v>
+      </c>
+    </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I85" s="2"/>
-      <c r="J85" s="3"/>
+      <c r="H85" s="6">
+        <v>7.5812465E7</v>
+      </c>
+      <c r="I85" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J85" s="23">
+        <v>44631.0</v>
+      </c>
       <c r="K85" s="11"/>
       <c r="L85" s="11"/>
     </row>
     <row r="86">
-      <c r="A86" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="I86" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="J86" s="5" t="s">
-        <v>101</v>
+      <c r="H86" s="6">
+        <v>7.5812465E7</v>
+      </c>
+      <c r="I86" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J86" s="23">
+        <v>44632.0</v>
       </c>
       <c r="K86" s="21"/>
       <c r="L86" s="21"/>
     </row>
     <row r="87">
-      <c r="A87" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="B87" s="6">
-        <v>8541213.0</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E87" s="6">
-        <v>10.0</v>
-      </c>
       <c r="H87" s="6">
-        <v>5825465.0</v>
+        <v>7.5542698E7</v>
       </c>
       <c r="I87" s="6">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="J87" s="23">
-        <v>44615.0</v>
+        <v>44633.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="H88" s="6">
+        <v>7.5213695E7</v>
+      </c>
+      <c r="I88" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="J88" s="23">
+        <v>44634.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="H89" s="6">
+        <v>7.5812465E7</v>
+      </c>
+      <c r="I89" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="J89" s="23">
+        <v>44635.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="H90" s="6">
+        <v>4.2596851E7</v>
+      </c>
+      <c r="I90" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="J90" s="23">
+        <v>44636.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="H91" s="6">
+        <v>7.2563298E7</v>
+      </c>
+      <c r="I91" s="20">
+        <v>16.0</v>
+      </c>
+      <c r="J91" s="23">
+        <v>44637.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="H92" s="6">
+        <v>7.5812465E7</v>
+      </c>
+      <c r="I92" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="J92" s="23">
+        <v>44638.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="H93" s="6">
+        <v>4.5268795E7</v>
+      </c>
+      <c r="I93" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="J93" s="23">
+        <v>44639.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="H94" s="6">
+        <v>7.4582369E7</v>
+      </c>
+      <c r="I94" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="J94" s="23">
+        <v>44640.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="H95" s="6">
+        <v>7.5213695E7</v>
+      </c>
+      <c r="I95" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="J95" s="23">
+        <v>44641.0</v>
       </c>
     </row>
   </sheetData>
@@ -1984,8 +2630,8 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="H61:J61"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="H9"/>
@@ -2093,7 +2739,7 @@
         <v>9.55236231E8</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>18</v>
@@ -2119,7 +2765,7 @@
         <v>9.58847526E8</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>21</v>
@@ -2145,7 +2791,7 @@
         <v>9.66215889E8</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>24</v>
@@ -2171,7 +2817,7 @@
         <v>9.42256321E8</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>18</v>
@@ -2197,7 +2843,7 @@
         <v>9.66032122E8</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>29</v>
@@ -2209,7 +2855,7 @@
         <v>29</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
@@ -2223,7 +2869,7 @@
         <v>9.12200547E8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>21</v>
@@ -2249,7 +2895,7 @@
         <v>9.00052337E8</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>34</v>
@@ -2275,7 +2921,7 @@
         <v>9.63005122E8</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>37</v>
@@ -2301,7 +2947,7 @@
         <v>9.785541E8</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>40</v>
@@ -2327,7 +2973,7 @@
         <v>9.533542E8</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>43</v>
